--- a/docs/Accounts Interface File/GL_Codes.xlsx
+++ b/docs/Accounts Interface File/GL_Codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinesh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\N2BS - Clients\IBL Arcadia Travel\Accounts Interface File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C826410B-A30E-430E-A463-99F87294A8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23FF6BF-10E2-4AA8-967F-1B5955A4BC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2F3D339-D4D9-4256-A1BD-CC7A485FAAB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E2F3D339-D4D9-4256-A1BD-CC7A485FAAB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>General_Ledger_Account_Code</t>
   </si>
@@ -137,25 +137,38 @@
     <t>Comments - Level 8</t>
   </si>
   <si>
-    <t>Is this the airline code? AF? Air France</t>
-  </si>
-  <si>
-    <t>Air Mauritius?</t>
-  </si>
-  <si>
-    <t>Emirates?</t>
-  </si>
-  <si>
     <t>Comments - Level 9</t>
   </si>
   <si>
     <t>Comments - General</t>
   </si>
   <si>
-    <t>Air ticket with Tax?</t>
-  </si>
-  <si>
     <t>Insurance</t>
+  </si>
+  <si>
+    <t>Service Fee</t>
+  </si>
+  <si>
+    <t>Not used for AZM</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Appears to be Airline code.
+But it is not actually used in AZM</t>
+  </si>
+  <si>
+    <t>Air Mauritius</t>
+  </si>
+  <si>
+    <t>Emirates</t>
+  </si>
+  <si>
+    <t>GL Double Entry</t>
   </si>
 </sst>
 </file>
@@ -193,7 +206,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,13 +523,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7211D31E-4D0A-4476-B0A9-6D8FE17AC81A}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +544,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -551,14 +566,14 @@
         <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>50042</v>
       </c>
       <c r="B2" t="s">
@@ -573,12 +588,12 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>50042</v>
       </c>
       <c r="B3" t="s">
@@ -595,7 +610,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>62121</v>
       </c>
       <c r="B4" t="s">
@@ -605,22 +620,22 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>26060092</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>25042</v>
       </c>
       <c r="D6">
@@ -629,9 +644,12 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>50042</v>
       </c>
       <c r="B7" t="s">
@@ -644,11 +662,11 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>50042</v>
       </c>
       <c r="E8" t="s">
@@ -656,7 +674,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>25042</v>
       </c>
       <c r="B9" t="s">
@@ -673,7 +691,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>50042</v>
       </c>
       <c r="B10" t="s">
@@ -686,11 +704,11 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>25042</v>
       </c>
       <c r="B11" t="s">
@@ -707,7 +725,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>50042</v>
       </c>
       <c r="B12" t="s">
@@ -720,14 +738,11 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>25042</v>
       </c>
       <c r="B13" t="s">
@@ -744,7 +759,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>50042</v>
       </c>
       <c r="B14" t="s">
@@ -756,12 +771,9 @@
       <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>25042</v>
       </c>
       <c r="B15" t="s">
@@ -778,7 +790,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>50042</v>
       </c>
       <c r="B16" t="s">
@@ -791,14 +803,11 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>25042</v>
       </c>
       <c r="B17" t="s">
@@ -814,8 +823,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>50042</v>
       </c>
       <c r="B18" t="s">
@@ -827,12 +836,9 @@
       <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>25042</v>
       </c>
       <c r="B19" t="s">
@@ -844,9 +850,12 @@
       <c r="E19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>25042</v>
       </c>
       <c r="B20" t="s">
@@ -859,8 +868,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>50042</v>
       </c>
       <c r="B21" t="s">
@@ -872,12 +881,9 @@
       <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>25042</v>
       </c>
       <c r="B22" t="s">
@@ -893,8 +899,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>50042</v>
       </c>
       <c r="B23" t="s">
@@ -906,12 +912,9 @@
       <c r="E23" t="s">
         <v>7</v>
       </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>50042</v>
       </c>
       <c r="B24" t="s">
@@ -923,8 +926,10 @@
       <c r="E24" t="s">
         <v>7</v>
       </c>
-      <c r="G24" t="s">
-        <v>29</v>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
